--- a/documents/tableau- farine & potiron.xlsx
+++ b/documents/tableau- farine & potiron.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lord_\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\Examen\BackEnd farine &amp; potiron\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A6DB3-ADB8-458C-A617-66988CE7DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927D19C-73DA-4FAC-8ECE-1F799F9E1C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="396" yWindow="972" windowWidth="22332" windowHeight="11208" xr2:uid="{34838E28-590B-4DEB-8BF0-813E84953EC5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="177">
   <si>
     <t>Nom</t>
   </si>
@@ -578,13 +578,6 @@
     <t>-(via $_GET) id : identifiant de la recette</t>
   </si>
   <si>
-    <t>- $detail_recipe : objet contenant les détails de la recette
-- $list_comments : tableau d'objets contenant les commentaires et notes associés à la recette
-- $detail_flour : tableau associatif avec infos farine
-- $list_ingredients : tableau d'objets des ingrédients utilisés
-- $flour_from_recipe : objet quantité/référence de la farine utilisée</t>
-  </si>
-  <si>
     <t>- Affiche les détails d'une recette, la farine, les ingrédients et les commentaires</t>
   </si>
   <si>
@@ -595,14 +588,7 @@
     <t>- Affiche le formulaire complet de création d'une recette</t>
   </si>
   <si>
-    <t>- $list_flours : tableau associatif contenant la liste des farines disponibles</t>
-  </si>
-  <si>
     <t>-Affiche la page d'accueil avec header selon l'état de connexion</t>
-  </si>
-  <si>
-    <t>- $list_recipes : liste des recettes à afficher (toutes ou filtrées)
-- $list_flours : tableau associatif avec références et libellés des farines</t>
   </si>
   <si>
     <t>- Prépare l'affichage de la page d'accueil (homepage)</t>
@@ -660,6 +646,26 @@
   <si>
     <t>- Affiche la navbar lorsque l'utilisateur est connecté
 - Accès au compte et bouton déconnexion</t>
+  </si>
+  <si>
+    <t>- $detail_recipe : objet contenant les détails de la recette
+- $list_comments : tableau d'objets contenant les commentaires et notes associés à la recette
+- $detail_flour : tableau associatif avec infos farine
+- $list_ingredients : tableau d'objets des ingrédients utilisés
+- $flour_from_recipe : objet quantité/référence de la farine utilisée
+- $user : objet de l'utilisateur connecté</t>
+  </si>
+  <si>
+    <t>- $user : objet de l'utilisateur connecté</t>
+  </si>
+  <si>
+    <t>- $list_recipes : liste des recettes à afficher (toutes ou filtrées)
+- $list_flours : tableau associatif avec références et libellés des farines
+- $user : objet de l'utilisateur connecté</t>
+  </si>
+  <si>
+    <t>- $list_flours : tableau associatif contenant la liste des farines disponibles
+- $user : objet de l'utilisateur connecté</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC3BE8-D1E7-4577-BE64-074FD518C0CD}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1106,10 +1112,10 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>92</v>
@@ -1174,7 +1180,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1191,10 +1197,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
@@ -1208,7 +1214,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1293,10 +1299,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>92</v>
@@ -1310,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -1395,10 +1401,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>92</v>
@@ -1412,10 +1418,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>92</v>
@@ -1429,10 +1435,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>92</v>
@@ -1453,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E14DF6B-A492-4BE9-A354-9F235713602A}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1793,7 +1799,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -1810,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -1827,7 +1833,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
@@ -1844,10 +1850,10 @@
         <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>92</v>
@@ -1861,10 +1867,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>92</v>

--- a/documents/tableau- farine & potiron.xlsx
+++ b/documents/tableau- farine & potiron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\Examen\BackEnd farine &amp; potiron\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927D19C-73DA-4FAC-8ECE-1F799F9E1C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF3CBE-84F2-47F6-8D25-35D3D351841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="396" yWindow="972" windowWidth="22332" windowHeight="11208" xr2:uid="{34838E28-590B-4DEB-8BF0-813E84953EC5}"/>
   </bookViews>
